--- a/05-поиск-решений/5-поиск-решений.xlsx
+++ b/05-поиск-решений/5-поиск-решений.xlsx
@@ -1,78 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Виктория\Desktop\1ppt\Advance_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Advanced Excel - Course\05-поиск-решений\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2723B039-A931-43DA-8918-5C71FCCCBF30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{82D45A4C-717C-4A8F-9906-65D4B502DF46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8448" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
+    <sheet name="решение" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">решение!$B$11:$D$12,решение!$B$15:$D$17,решение!$B$20:$D$22</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$H$10:$H$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">решение!$B$11</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">Лист1!$H$10:$H$12</definedName>
+    <definedName name="solver_lhs10" localSheetId="1" hidden="1">решение!$B$20:$D$22</definedName>
+    <definedName name="solver_lhs11" localSheetId="1" hidden="1">решение!$C$11</definedName>
+    <definedName name="solver_lhs12" localSheetId="1" hidden="1">решение!$C$12</definedName>
+    <definedName name="solver_lhs13" localSheetId="1" hidden="1">решение!$C$15:$C$17</definedName>
+    <definedName name="solver_lhs14" localSheetId="1" hidden="1">решение!$C$20:$C$22</definedName>
+    <definedName name="solver_lhs15" localSheetId="1" hidden="1">решение!$D$11</definedName>
+    <definedName name="solver_lhs16" localSheetId="1" hidden="1">решение!$D$12</definedName>
+    <definedName name="solver_lhs17" localSheetId="1" hidden="1">решение!$D$15:$D$17</definedName>
+    <definedName name="solver_lhs18" localSheetId="1" hidden="1">решение!$D$20:$D$22</definedName>
+    <definedName name="solver_lhs19" localSheetId="1" hidden="1">решение!$H$10:$J$12</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$H$10:$H$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">решение!$B$11:$D$12</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$H$10:$H$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">решение!$B$11:$D$12</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Лист1!$H$10:$H$12</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">решение!$B$12</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Лист1!$H$10:$H$12</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">решение!$B$15:$B$17</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">Лист1!$H$10:$H$12</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">решение!$B$15:$D$17</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">Лист1!$H$10:$H$12</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">решение!$B$15:$D$17</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">Лист1!$H$10:$H$12</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">решение!$B$20:$B$22</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">Лист1!$H$10:$H$12</definedName>
+    <definedName name="solver_lhs9" localSheetId="1" hidden="1">решение!$B$20:$D$22</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">19</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">решение!$K$13</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel10" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel13" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel14" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel15" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel16" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel17" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel18" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel19" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel9" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Лист1!$C$2:$C$4</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">решение!$B$4</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">Лист1!$C$2:$C$4</definedName>
+    <definedName name="solver_rhs10" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs11" localSheetId="1" hidden="1">решение!$C$4</definedName>
+    <definedName name="solver_rhs12" localSheetId="1" hidden="1">решение!$C$3</definedName>
+    <definedName name="solver_rhs13" localSheetId="1" hidden="1">решение!$I$2:$I$4</definedName>
+    <definedName name="solver_rhs14" localSheetId="1" hidden="1">решение!$C$2:$C$4</definedName>
+    <definedName name="solver_rhs15" localSheetId="1" hidden="1">решение!$D$4</definedName>
+    <definedName name="solver_rhs16" localSheetId="1" hidden="1">решение!$D$3</definedName>
+    <definedName name="solver_rhs17" localSheetId="1" hidden="1">решение!$I$2:$I$4</definedName>
+    <definedName name="solver_rhs18" localSheetId="1" hidden="1">решение!$D$2:$D$4</definedName>
+    <definedName name="solver_rhs19" localSheetId="1" hidden="1">решение!$C$2:$E$4</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$C$2:$C$4</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$C$2:$C$4</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">Лист1!$C$2:$C$4</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">решение!$B$3</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">Лист1!$C$2:$C$4</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">решение!$I$2:$I$4</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">Лист1!$C$2:$C$4</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">Лист1!$C$2:$C$4</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">Лист1!$C$2:$C$4</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">решение!$B$2:$B$4</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">Лист1!$C$2:$C$4</definedName>
+    <definedName name="solver_rhs9" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,12 +166,49 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Виктория</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{C386BBB2-04C2-4036-8743-F514403E7193}">
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Nikita Sergeev:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Данные ЦЭ по работе с людьми
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Виктория</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>Средний уровень</t>
   </si>
@@ -187,7 +308,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -1420,27 +1541,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF02807E-27CD-45EC-AFFF-640D858FD5F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -1472,7 +1593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -1502,7 +1623,7 @@
       </c>
       <c r="K2" s="26"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1655,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -1566,7 +1687,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
@@ -1587,8 +1708,8 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
@@ -1604,7 +1725,7 @@
       <c r="J8" s="87"/>
       <c r="K8" s="88"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="44" t="s">
         <v>11</v>
@@ -1626,7 +1747,7 @@
       </c>
       <c r="K9" s="90"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
       <c r="B10" s="46">
         <v>2019</v>
@@ -1655,7 +1776,7 @@
       </c>
       <c r="K10" s="90"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>14</v>
       </c>
@@ -1689,7 +1810,7 @@
       </c>
       <c r="K11" s="90"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
         <v>15</v>
       </c>
@@ -1723,7 +1844,7 @@
       </c>
       <c r="K12" s="90"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
       <c r="B13" s="65" t="s">
         <v>12</v>
@@ -1742,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="54">
         <v>2019</v>
@@ -1755,7 +1876,7 @@
       </c>
       <c r="E14" s="55"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
@@ -1773,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="43" t="s">
         <v>17</v>
@@ -1818,7 +1939,7 @@
       <c r="D18" s="66"/>
       <c r="E18" s="82"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32"/>
       <c r="B19" s="67">
         <v>2019</v>
@@ -1831,7 +1952,7 @@
       </c>
       <c r="E19" s="68"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>3</v>
       </c>
@@ -1849,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
@@ -1885,14 +2006,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
       <c r="E23" s="34"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="41" t="s">
         <v>16</v>
       </c>
@@ -1904,7 +2025,7 @@
       </c>
       <c r="E24" s="34"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
@@ -1916,4 +2037,530 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="15">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="16">
+        <v>2021</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1800</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="24">
+        <v>1200</v>
+      </c>
+      <c r="I2" s="25">
+        <v>420</v>
+      </c>
+      <c r="J2" s="24">
+        <v>400</v>
+      </c>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1700</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1300</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1100</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>900</v>
+      </c>
+      <c r="I3" s="7">
+        <v>530</v>
+      </c>
+      <c r="J3" s="1">
+        <v>200</v>
+      </c>
+      <c r="K3" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2200</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="12">
+        <v>600</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>500</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1800</v>
+      </c>
+      <c r="J4" s="3">
+        <v>100</v>
+      </c>
+      <c r="K4" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <f>SUM(B2:B4)</f>
+        <v>4900</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="shared" ref="C5:E5" si="0">SUM(C2:C4)</f>
+        <v>4000</v>
+      </c>
+      <c r="D5" s="18">
+        <f>SUM(D2:D4)</f>
+        <v>3500</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="89"/>
+      <c r="H9" s="84">
+        <v>2019</v>
+      </c>
+      <c r="I9" s="84">
+        <v>2020</v>
+      </c>
+      <c r="J9" s="84">
+        <v>2021</v>
+      </c>
+      <c r="K9" s="90"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="32"/>
+      <c r="B10" s="46">
+        <v>2019</v>
+      </c>
+      <c r="C10" s="46">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="46">
+        <v>2021</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="G10" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="36">
+        <f>B2+B12+B15-B20</f>
+        <v>1200</v>
+      </c>
+      <c r="I10" s="36">
+        <f>H10+C12+C15-C20</f>
+        <v>1800</v>
+      </c>
+      <c r="J10" s="36">
+        <f>I10+D12+D15-D20</f>
+        <v>2000</v>
+      </c>
+      <c r="K10" s="90"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="48">
+        <v>0</v>
+      </c>
+      <c r="C11" s="49">
+        <v>400</v>
+      </c>
+      <c r="D11" s="50">
+        <v>100</v>
+      </c>
+      <c r="E11" s="79">
+        <f>K4*SUM(B11:D11)</f>
+        <v>250000</v>
+      </c>
+      <c r="G11" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36">
+        <f>B3+B11-B12+B16-B21</f>
+        <v>1300</v>
+      </c>
+      <c r="I11" s="36">
+        <f>H11+C11-C12+C16-C21</f>
+        <v>1100</v>
+      </c>
+      <c r="J11" s="36">
+        <f>I11+D11-D12+D16-D21</f>
+        <v>1000</v>
+      </c>
+      <c r="K11" s="90"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="51">
+        <v>200</v>
+      </c>
+      <c r="C12" s="52">
+        <v>600</v>
+      </c>
+      <c r="D12" s="53">
+        <v>200</v>
+      </c>
+      <c r="E12" s="79">
+        <f>K3*SUM(B12:D12)</f>
+        <v>400000</v>
+      </c>
+      <c r="G12" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="36">
+        <f>B4+B17-B11-B22</f>
+        <v>1500</v>
+      </c>
+      <c r="I12" s="36">
+        <f>H12+C17-C11-C22</f>
+        <v>600</v>
+      </c>
+      <c r="J12" s="36">
+        <f>I12+D17-D11-D22</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="90"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35"/>
+      <c r="B13" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="80"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96">
+        <f>SUM(E11:E12,E15:E17,E20:E22)</f>
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="54">
+        <v>2019</v>
+      </c>
+      <c r="C14" s="54">
+        <v>2020</v>
+      </c>
+      <c r="D14" s="54">
+        <v>2021</v>
+      </c>
+      <c r="E14" s="55"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="56">
+        <v>0</v>
+      </c>
+      <c r="C15" s="57">
+        <v>0</v>
+      </c>
+      <c r="D15" s="58">
+        <v>0</v>
+      </c>
+      <c r="E15" s="81">
+        <f>J2*SUM(B15:D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="59">
+        <v>0</v>
+      </c>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
+      <c r="E16" s="81">
+        <f>J3*SUM(B16:D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="62">
+        <v>0</v>
+      </c>
+      <c r="C17" s="63">
+        <v>0</v>
+      </c>
+      <c r="D17" s="64">
+        <v>0</v>
+      </c>
+      <c r="E17" s="81">
+        <f>J4*SUM(B17:D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="82"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="32"/>
+      <c r="B19" s="67">
+        <v>2019</v>
+      </c>
+      <c r="C19" s="67">
+        <v>2020</v>
+      </c>
+      <c r="D19" s="67">
+        <v>2021</v>
+      </c>
+      <c r="E19" s="68"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="69">
+        <v>0</v>
+      </c>
+      <c r="C20" s="70">
+        <v>0</v>
+      </c>
+      <c r="D20" s="71">
+        <v>0</v>
+      </c>
+      <c r="E20" s="83">
+        <f>H2*SUM(B20:D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="72">
+        <v>200</v>
+      </c>
+      <c r="C21" s="73">
+        <v>0</v>
+      </c>
+      <c r="D21" s="74">
+        <v>0</v>
+      </c>
+      <c r="E21" s="83">
+        <f>H3*SUM(B21:D21)</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="75">
+        <v>700</v>
+      </c>
+      <c r="C22" s="76">
+        <v>500</v>
+      </c>
+      <c r="D22" s="77">
+        <v>500</v>
+      </c>
+      <c r="E22" s="83">
+        <f>H4*SUM(B22:D22)</f>
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="40">
+        <f>SUM(B20:D22)</f>
+        <v>1900</v>
+      </c>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+    </row>
+  </sheetData>
+  <scenarios current="0" show="0">
+    <scenario name="Решение для реорганизацию" count="24" user="user" comment="Автор: user , 1/6/2024">
+      <inputCells r="B11" val="0" numFmtId="1"/>
+      <inputCells r="C11" val="400" numFmtId="1"/>
+      <inputCells r="D11" val="100" numFmtId="1"/>
+      <inputCells r="B12" val="200" numFmtId="1"/>
+      <inputCells r="C12" val="600" numFmtId="1"/>
+      <inputCells r="D12" val="200" numFmtId="1"/>
+      <inputCells r="B15" val="0" numFmtId="1"/>
+      <inputCells r="C15" val="0" numFmtId="1"/>
+      <inputCells r="D15" val="0" numFmtId="1"/>
+      <inputCells r="B16" val="0" numFmtId="1"/>
+      <inputCells r="C16" val="0" numFmtId="1"/>
+      <inputCells r="D16" val="0" numFmtId="1"/>
+      <inputCells r="B17" val="0" numFmtId="1"/>
+      <inputCells r="C17" val="0" numFmtId="1"/>
+      <inputCells r="D17" val="0" numFmtId="1"/>
+      <inputCells r="B20" val="0" numFmtId="1"/>
+      <inputCells r="C20" val="0" numFmtId="1"/>
+      <inputCells r="D20" val="0" numFmtId="1"/>
+      <inputCells r="B21" val="200" numFmtId="1"/>
+      <inputCells r="C21" val="0" numFmtId="1"/>
+      <inputCells r="D21" val="0" numFmtId="1"/>
+      <inputCells r="B22" val="700" numFmtId="1"/>
+      <inputCells r="C22" val="500" numFmtId="1"/>
+      <inputCells r="D22" val="500" numFmtId="1"/>
+    </scenario>
+  </scenarios>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>